--- a/Final/SummaryTable/Heart_Summary_Stat.xlsx
+++ b/Final/SummaryTable/Heart_Summary_Stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workplace2\AlaysisForPaperAll\TimePointSelection\Final\SummaryTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66CC61F-D0B3-4642-A676-65EB08291B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19259A76-51E3-4CE1-8947-7825D13FF699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D30364D-1CC4-4C11-AC41-095500055A0F}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{1D30364D-1CC4-4C11-AC41-095500055A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="heart_stat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Labeling duration</t>
   </si>
@@ -44,6 +44,45 @@
   </si>
   <si>
     <t>Logarithmic expression</t>
+  </si>
+  <si>
+    <t>0.78 [0.77,0.79]</t>
+  </si>
+  <si>
+    <t>0.75 [0.74,0.77]</t>
+  </si>
+  <si>
+    <t>0.84 [0.84,0.85]</t>
+  </si>
+  <si>
+    <t>0.80 [0.80,0.81]</t>
+  </si>
+  <si>
+    <t>0.90 [0.89,0.90]</t>
+  </si>
+  <si>
+    <t>0.85 [0.84,0.86]</t>
+  </si>
+  <si>
+    <t>0.91 [0.90,0.91]</t>
+  </si>
+  <si>
+    <t>0.86 [0.85,0.86]</t>
+  </si>
+  <si>
+    <t>0.90 [0.90,0.91]</t>
+  </si>
+  <si>
+    <t>0.83 [0.83,0.84]</t>
+  </si>
+  <si>
+    <t>0.82 [0.81,0.83]</t>
+  </si>
+  <si>
+    <t>0.80 [0.79,0.81]</t>
+  </si>
+  <si>
+    <t>0.76 [0.74,0.77]</t>
   </si>
 </sst>
 </file>
@@ -926,7 +965,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A3" sqref="A3:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,8 +1036,8 @@
       <c r="B3">
         <v>4693</v>
       </c>
-      <c r="C3">
-        <v>0.77900000000000003</v>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>-0.52</v>
@@ -1009,8 +1048,8 @@
       <c r="F3">
         <v>1.03</v>
       </c>
-      <c r="G3">
-        <v>0.753</v>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
       <c r="H3">
         <v>-0.43</v>
@@ -1029,8 +1068,8 @@
       <c r="B4">
         <v>5165</v>
       </c>
-      <c r="C4">
-        <v>0.84399999999999997</v>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4">
         <v>-0.31</v>
@@ -1041,8 +1080,8 @@
       <c r="F4">
         <v>0.65</v>
       </c>
-      <c r="G4">
-        <v>0.80400000000000005</v>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
       <c r="H4">
         <v>-0.2</v>
@@ -1061,8 +1100,8 @@
       <c r="B5">
         <v>5255</v>
       </c>
-      <c r="C5">
-        <v>0.89700000000000002</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5">
         <v>-0.08</v>
@@ -1073,8 +1112,8 @@
       <c r="F5">
         <v>0.48</v>
       </c>
-      <c r="G5">
-        <v>0.84899999999999998</v>
+      <c r="G5" t="s">
+        <v>13</v>
       </c>
       <c r="H5">
         <v>0.02</v>
@@ -1093,8 +1132,8 @@
       <c r="B6">
         <v>5343</v>
       </c>
-      <c r="C6">
-        <v>0.90800000000000003</v>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
       <c r="D6">
         <v>-0.19</v>
@@ -1105,8 +1144,8 @@
       <c r="F6">
         <v>0.33</v>
       </c>
-      <c r="G6">
-        <v>0.85599999999999998</v>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
       <c r="H6">
         <v>0.02</v>
@@ -1125,8 +1164,8 @@
       <c r="B7">
         <v>5372</v>
       </c>
-      <c r="C7">
-        <v>0.90100000000000002</v>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
       <c r="D7">
         <v>-7.0000000000000007E-2</v>
@@ -1137,8 +1176,8 @@
       <c r="F7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G7">
-        <v>0.83399999999999996</v>
+      <c r="G7" t="s">
+        <v>17</v>
       </c>
       <c r="H7">
         <v>0.12</v>
@@ -1157,8 +1196,8 @@
       <c r="B8">
         <v>5235</v>
       </c>
-      <c r="C8">
-        <v>0.81899999999999995</v>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8">
         <v>-0.17</v>
@@ -1169,8 +1208,8 @@
       <c r="F8">
         <v>0.26</v>
       </c>
-      <c r="G8">
-        <v>0.80400000000000005</v>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
       <c r="H8">
         <v>0.19</v>
@@ -1189,8 +1228,8 @@
       <c r="B9">
         <v>5079</v>
       </c>
-      <c r="C9">
-        <v>0.78100000000000003</v>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
       <c r="D9">
         <v>-0.25</v>
@@ -1201,8 +1240,8 @@
       <c r="F9">
         <v>0.27</v>
       </c>
-      <c r="G9">
-        <v>0.755</v>
+      <c r="G9" t="s">
+        <v>20</v>
       </c>
       <c r="H9">
         <v>0.2</v>
